--- a/test_files/Modify_DPM_explicit_domain_extension.xlsx
+++ b/test_files/Modify_DPM_explicit_domain_extension.xlsx
@@ -1,25 +1,133 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21629"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{29553CC1-C2D0-4470-86C2-D7D8AC658733}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="CodeSchemes" sheetId="1" r:id="rId3"/>
-    <sheet state="visible" name="Links_600" sheetId="2" r:id="rId4"/>
-    <sheet state="visible" name="Codes_600" sheetId="3" r:id="rId5"/>
-    <sheet state="visible" name="Extensions_600" sheetId="4" r:id="rId6"/>
-    <sheet state="visible" name="Members_600_dpmExplicitDomain" sheetId="5" r:id="rId7"/>
+    <sheet name="CodeSchemes" sheetId="1" r:id="rId1"/>
+    <sheet name="Links_600" sheetId="2" r:id="rId2"/>
+    <sheet name="Codes_600" sheetId="3" r:id="rId3"/>
+    <sheet name="Extensions_600" sheetId="4" r:id="rId4"/>
+    <sheet name="Members_600_dpmExplicitDomain" sheetId="5" r:id="rId5"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="191028"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="527" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="193">
+  <si>
+    <t>CODEVALUE</t>
+  </si>
+  <si>
+    <t>ORGANIZATION</t>
+  </si>
+  <si>
+    <t>INFORMATIONDOMAIN</t>
+  </si>
+  <si>
+    <t>LANGUAGECODE</t>
+  </si>
+  <si>
+    <t>VERSION</t>
+  </si>
+  <si>
+    <t>STATUS</t>
+  </si>
+  <si>
+    <t>SOURCE</t>
+  </si>
+  <si>
+    <t>LEGALBASE</t>
+  </si>
+  <si>
+    <t>GOVERNANCEPOLICY</t>
+  </si>
+  <si>
+    <t>CONCEPTURI</t>
+  </si>
+  <si>
+    <t>DEFAULTCODE</t>
+  </si>
+  <si>
+    <t>PREFLABEL_FI</t>
+  </si>
+  <si>
+    <t>STARTDATE</t>
+  </si>
+  <si>
+    <t>ENDDATE</t>
+  </si>
+  <si>
+    <t>CREATED</t>
+  </si>
+  <si>
+    <t>MODIFIED</t>
+  </si>
   <si>
     <t>HREF</t>
   </si>
   <si>
+    <t>CODESSHEET</t>
+  </si>
+  <si>
+    <t>LINKSSHEET</t>
+  </si>
+  <si>
+    <t>EXTENSIONSSHEET</t>
+  </si>
+  <si>
+    <t>600</t>
+  </si>
+  <si>
+    <t>74a41211-8c99-4835-a519-7a61612b1098</t>
+  </si>
+  <si>
+    <t>P1</t>
+  </si>
+  <si>
+    <t>en;fi</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>DRAFT</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Koodisto600</t>
+  </si>
+  <si>
+    <t>2018-01-01</t>
+  </si>
+  <si>
+    <t>2019-01-01</t>
+  </si>
+  <si>
+    <t>Codes_600</t>
+  </si>
+  <si>
+    <t>Links_600</t>
+  </si>
+  <si>
+    <t>Extensions_600</t>
+  </si>
+  <si>
     <t>PROPERTYTYPE</t>
   </si>
   <si>
@@ -41,12 +149,6 @@
     <t>DESCRIPTION_EN</t>
   </si>
   <si>
-    <t>CREATED</t>
-  </si>
-  <si>
-    <t>MODIFIED</t>
-  </si>
-  <si>
     <t>https://creativecommons.org/publicdomain/zero/1.0/</t>
   </si>
   <si>
@@ -86,132 +188,42 @@
     <t>Koodisto on lisensoitu Creative Commons Nimeä 4.0 Kansainvälinen -lisenssillä.</t>
   </si>
   <si>
-    <t>CODEVALUE</t>
+    <t>Detta kodelist är licensierat under en Creative Commons Erkännande 4.0 Internationell Licens.</t>
+  </si>
+  <si>
+    <t>This code list is licensed under a Creative Commons Attribution 4.0 International License.</t>
   </si>
   <si>
     <t>BROADER</t>
   </si>
   <si>
-    <t>STATUS</t>
-  </si>
-  <si>
-    <t>ORGANIZATION</t>
-  </si>
-  <si>
-    <t>PREFLABEL_FI</t>
-  </si>
-  <si>
     <t>SHORTNAME</t>
   </si>
   <si>
-    <t>INFORMATIONDOMAIN</t>
-  </si>
-  <si>
-    <t>CONCEPTURI</t>
-  </si>
-  <si>
-    <t>LANGUAGECODE</t>
-  </si>
-  <si>
     <t>SUBCODESCHEME</t>
   </si>
   <si>
-    <t>VERSION</t>
-  </si>
-  <si>
     <t>HIERARCHYLEVEL</t>
   </si>
   <si>
     <t>ORDER</t>
   </si>
   <si>
-    <t>SOURCE</t>
-  </si>
-  <si>
-    <t>STARTDATE</t>
-  </si>
-  <si>
-    <t>LEGALBASE</t>
-  </si>
-  <si>
-    <t>ENDDATE</t>
-  </si>
-  <si>
-    <t>GOVERNANCEPOLICY</t>
-  </si>
-  <si>
-    <t>DEFAULTCODE</t>
-  </si>
-  <si>
-    <t>CODESSHEET</t>
-  </si>
-  <si>
-    <t>LINKSSHEET</t>
-  </si>
-  <si>
-    <t>EXTENSIONSSHEET</t>
-  </si>
-  <si>
     <t>testcode28</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
-    <t>DRAFT</t>
-  </si>
-  <si>
     <t>Testcode 28</t>
   </si>
   <si>
-    <t>600</t>
-  </si>
-  <si>
-    <t>74a41211-8c99-4835-a519-7a61612b1098</t>
-  </si>
-  <si>
-    <t>P1</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>en;fi</t>
-  </si>
-  <si>
     <t>testcode29</t>
   </si>
   <si>
-    <t>Koodisto600</t>
-  </si>
-  <si>
-    <t>2018-01-01</t>
-  </si>
-  <si>
-    <t>2019-01-01</t>
-  </si>
-  <si>
     <t>Testcode 29</t>
   </si>
   <si>
-    <t>Codes_600</t>
-  </si>
-  <si>
-    <t>Links_600</t>
-  </si>
-  <si>
-    <t>Extensions_600</t>
-  </si>
-  <si>
-    <t>Detta kodelist är licensierat under en Creative Commons Erkännande 4.0 Internationell Licens.</t>
-  </si>
-  <si>
     <t>2</t>
   </si>
   <si>
-    <t>This code list is licensed under a Creative Commons Attribution 4.0 International License.</t>
-  </si>
-  <si>
     <t>testcode30</t>
   </si>
   <si>
@@ -464,6 +476,33 @@
     <t>30</t>
   </si>
   <si>
+    <t>CODESCHEMES</t>
+  </si>
+  <si>
+    <t>PREFLABEL_EN</t>
+  </si>
+  <si>
+    <t>MEMBERSSHEET</t>
+  </si>
+  <si>
+    <t>dpmExplicitDomain</t>
+  </si>
+  <si>
+    <t>DPM Explicit Domain laajennus</t>
+  </si>
+  <si>
+    <t>DPM Explicit Domain</t>
+  </si>
+  <si>
+    <t>2018-11-01</t>
+  </si>
+  <si>
+    <t>2018-11-30</t>
+  </si>
+  <si>
+    <t>Members_600_dpmExplicitDomain</t>
+  </si>
+  <si>
     <t>DPMMEMBERXBRLCODEPREFIX</t>
   </si>
   <si>
@@ -473,37 +512,13 @@
     <t>RELATION</t>
   </si>
   <si>
+    <t>SEQUENCE_ID</t>
+  </si>
+  <si>
     <t>yyy</t>
   </si>
   <si>
     <t>http://uri.suomi.fi/codelist/test/600/code/testcode28</t>
-  </si>
-  <si>
-    <t>CODESCHEMES</t>
-  </si>
-  <si>
-    <t>PREFLABEL_EN</t>
-  </si>
-  <si>
-    <t>MEMBERSSHEET</t>
-  </si>
-  <si>
-    <t>dpmExplicitDomain</t>
-  </si>
-  <si>
-    <t>DPM Explicit Domain laajennus</t>
-  </si>
-  <si>
-    <t>DPM Explicit Domain</t>
-  </si>
-  <si>
-    <t>2018-11-01</t>
-  </si>
-  <si>
-    <t>2018-11-30</t>
-  </si>
-  <si>
-    <t>Members_600_dpmExplicitDomain</t>
   </si>
   <si>
     <t>http://uri.suomi.fi/codelist/test/600/code/testcode29</t>
@@ -596,209 +611,490 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="2">
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <name val="Calibri"/>
     </font>
-    <font/>
   </fonts>
   <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
-</file>
-
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
-</file>
-
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:T1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="11" width="8.71"/>
-    <col customWidth="1" min="12" max="12" width="29.71"/>
-    <col customWidth="1" min="13" max="13" width="25.43"/>
-    <col customWidth="1" min="14" max="14" width="26.29"/>
-    <col customWidth="1" min="15" max="15" width="21.14"/>
-    <col customWidth="1" min="16" max="16" width="25.57"/>
-    <col customWidth="1" min="17" max="25" width="8.71"/>
+    <col min="1" max="11" width="8.7109375" customWidth="1"/>
+    <col min="12" max="12" width="29.7109375" customWidth="1"/>
+    <col min="13" max="13" width="25.42578125" customWidth="1"/>
+    <col min="14" max="14" width="26.28515625" customWidth="1"/>
+    <col min="15" max="15" width="21.140625" customWidth="1"/>
+    <col min="16" max="16" width="25.5703125" customWidth="1"/>
+    <col min="17" max="25" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:20">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
+      <c r="A2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" t="s">
         <v>23</v>
       </c>
-      <c r="B1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="E2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L2" t="s">
+        <v>27</v>
+      </c>
+      <c r="M2" t="s">
+        <v>28</v>
+      </c>
+      <c r="N2" t="s">
         <v>29</v>
       </c>
-      <c r="D1" t="s">
+      <c r="Q2" t="s">
+        <v>26</v>
+      </c>
+      <c r="R2" t="s">
+        <v>30</v>
+      </c>
+      <c r="S2" t="s">
         <v>31</v>
       </c>
-      <c r="E1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G1" t="s">
-        <v>36</v>
-      </c>
-      <c r="H1" t="s">
-        <v>38</v>
-      </c>
-      <c r="I1" t="s">
-        <v>40</v>
-      </c>
-      <c r="J1" t="s">
-        <v>30</v>
-      </c>
-      <c r="K1" t="s">
-        <v>41</v>
-      </c>
-      <c r="L1" t="s">
-        <v>27</v>
-      </c>
-      <c r="M1" t="s">
-        <v>37</v>
-      </c>
-      <c r="N1" t="s">
-        <v>39</v>
-      </c>
-      <c r="O1" t="s">
-        <v>8</v>
-      </c>
-      <c r="P1" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>0</v>
-      </c>
-      <c r="R1" t="s">
-        <v>42</v>
-      </c>
-      <c r="S1" t="s">
-        <v>43</v>
-      </c>
-      <c r="T1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C2" t="s">
-        <v>51</v>
-      </c>
-      <c r="D2" t="s">
-        <v>53</v>
-      </c>
-      <c r="E2" t="s">
-        <v>52</v>
-      </c>
-      <c r="F2" t="s">
-        <v>47</v>
-      </c>
-      <c r="G2" t="s">
-        <v>46</v>
-      </c>
-      <c r="H2" t="s">
-        <v>46</v>
-      </c>
-      <c r="I2" t="s">
-        <v>46</v>
-      </c>
-      <c r="J2" t="s">
-        <v>46</v>
-      </c>
-      <c r="K2" t="s">
-        <v>46</v>
-      </c>
-      <c r="L2" t="s">
-        <v>55</v>
-      </c>
-      <c r="M2" t="s">
-        <v>56</v>
-      </c>
-      <c r="N2" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>46</v>
-      </c>
-      <c r="R2" t="s">
-        <v>59</v>
-      </c>
-      <c r="S2" t="s">
-        <v>60</v>
-      </c>
       <c r="T2" t="s">
-        <v>61</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1"/>
@@ -1782,111 +2078,107 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:J1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" xr3:uid="{958C4451-9541-5A59-BF78-D2F731DF1C81}"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="8" width="8.71"/>
-    <col customWidth="1" min="9" max="9" width="22.0"/>
-    <col customWidth="1" min="10" max="10" width="21.86"/>
-    <col customWidth="1" min="11" max="25" width="8.71"/>
+    <col min="1" max="8" width="8.7109375" customWidth="1"/>
+    <col min="9" max="9" width="22" customWidth="1"/>
+    <col min="10" max="10" width="21.85546875" customWidth="1"/>
+    <col min="11" max="25" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>33</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>34</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>35</v>
       </c>
       <c r="E1" t="s">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="F1" t="s">
-        <v>5</v>
+        <v>37</v>
       </c>
       <c r="G1" t="s">
-        <v>6</v>
+        <v>38</v>
       </c>
       <c r="H1" t="s">
-        <v>7</v>
+        <v>39</v>
       </c>
       <c r="I1" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="J1" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="D2" t="s">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="E2" t="s">
-        <v>14</v>
+        <v>44</v>
       </c>
       <c r="F2" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="G2" t="s">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="H2" t="s">
-        <v>17</v>
+        <v>47</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="C3" t="s">
-        <v>19</v>
+        <v>49</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="E3" t="s">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="F3" t="s">
-        <v>22</v>
+        <v>52</v>
       </c>
       <c r="G3" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="H3" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1"/>
@@ -2870,1214 +3162,1212 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:N1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0" xr3:uid="{842E5F09-E766-5B8D-85AF-A39847EA96FD}"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="11" width="8.71"/>
-    <col customWidth="1" min="12" max="12" width="18.29"/>
-    <col customWidth="1" min="13" max="13" width="29.29"/>
-    <col customWidth="1" min="14" max="25" width="8.71"/>
+    <col min="1" max="3" width="8.7109375" customWidth="1"/>
+    <col min="4" max="4" width="35.42578125" customWidth="1"/>
+    <col min="5" max="11" width="8.7109375" customWidth="1"/>
+    <col min="12" max="12" width="18.28515625" customWidth="1"/>
+    <col min="13" max="13" width="29.28515625" customWidth="1"/>
+    <col min="14" max="25" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:14">
       <c r="A1" t="s">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H1" t="s">
+        <v>58</v>
+      </c>
+      <c r="I1" t="s">
+        <v>59</v>
+      </c>
+      <c r="J1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M1" t="s">
+        <v>15</v>
+      </c>
+      <c r="N1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="A2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H2" t="s">
         <v>24</v>
       </c>
-      <c r="C1" t="s">
+      <c r="I2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K2" t="s">
+        <v>26</v>
+      </c>
+      <c r="N2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="A3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" t="s">
         <v>25</v>
       </c>
-      <c r="D1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F1" t="s">
-        <v>30</v>
-      </c>
-      <c r="G1" t="s">
-        <v>32</v>
-      </c>
-      <c r="H1" t="s">
-        <v>34</v>
-      </c>
-      <c r="I1" t="s">
-        <v>35</v>
-      </c>
-      <c r="J1" t="s">
-        <v>37</v>
-      </c>
-      <c r="K1" t="s">
-        <v>39</v>
-      </c>
-      <c r="L1" t="s">
-        <v>8</v>
-      </c>
-      <c r="M1" t="s">
-        <v>9</v>
-      </c>
-      <c r="N1" t="s">
-        <v>0</v>
+      <c r="D3" t="s">
+        <v>63</v>
+      </c>
+      <c r="E3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I3" t="s">
+        <v>64</v>
+      </c>
+      <c r="J3" t="s">
+        <v>26</v>
+      </c>
+      <c r="K3" t="s">
+        <v>26</v>
+      </c>
+      <c r="N3" t="s">
+        <v>26</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E2" t="s">
-        <v>46</v>
-      </c>
-      <c r="F2" t="s">
-        <v>46</v>
-      </c>
-      <c r="G2" t="s">
-        <v>46</v>
-      </c>
-      <c r="H2" t="s">
-        <v>52</v>
-      </c>
-      <c r="I2" t="s">
-        <v>52</v>
-      </c>
-      <c r="J2" t="s">
-        <v>46</v>
-      </c>
-      <c r="K2" t="s">
-        <v>46</v>
-      </c>
-      <c r="N2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C3" t="s">
-        <v>47</v>
-      </c>
-      <c r="D3" t="s">
-        <v>58</v>
-      </c>
-      <c r="E3" t="s">
-        <v>46</v>
-      </c>
-      <c r="F3" t="s">
-        <v>46</v>
-      </c>
-      <c r="G3" t="s">
-        <v>46</v>
-      </c>
-      <c r="H3" t="s">
-        <v>52</v>
-      </c>
-      <c r="I3" t="s">
-        <v>63</v>
-      </c>
-      <c r="J3" t="s">
-        <v>46</v>
-      </c>
-      <c r="K3" t="s">
-        <v>46</v>
-      </c>
-      <c r="N3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="4">
+    <row r="4" spans="1:14">
       <c r="A4" t="s">
         <v>65</v>
       </c>
       <c r="B4" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
         <v>66</v>
       </c>
       <c r="E4" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="F4" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="G4" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="H4" t="s">
-        <v>52</v>
+        <v>24</v>
       </c>
       <c r="I4" t="s">
         <v>67</v>
       </c>
       <c r="J4" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="K4" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="N4" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:14">
       <c r="A5" t="s">
         <v>68</v>
       </c>
       <c r="B5" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
         <v>69</v>
       </c>
       <c r="E5" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="F5" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="H5" t="s">
-        <v>52</v>
+        <v>24</v>
       </c>
       <c r="I5" t="s">
         <v>70</v>
       </c>
       <c r="J5" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="K5" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="N5" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:14">
       <c r="A6" t="s">
         <v>71</v>
       </c>
       <c r="B6" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
         <v>72</v>
       </c>
       <c r="E6" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="F6" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="H6" t="s">
-        <v>52</v>
+        <v>24</v>
       </c>
       <c r="I6" t="s">
         <v>73</v>
       </c>
       <c r="J6" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="K6" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="N6" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:14">
       <c r="A7" t="s">
         <v>74</v>
       </c>
       <c r="B7" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>75</v>
       </c>
       <c r="E7" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="F7" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="H7" t="s">
-        <v>52</v>
+        <v>24</v>
       </c>
       <c r="I7" t="s">
         <v>76</v>
       </c>
       <c r="J7" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="K7" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="N7" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:14">
       <c r="A8" t="s">
         <v>77</v>
       </c>
       <c r="B8" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
         <v>78</v>
       </c>
       <c r="E8" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="F8" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="H8" t="s">
-        <v>52</v>
+        <v>24</v>
       </c>
       <c r="I8" t="s">
         <v>79</v>
       </c>
       <c r="J8" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="K8" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="N8" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:14">
       <c r="A9" t="s">
         <v>80</v>
       </c>
       <c r="B9" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
         <v>81</v>
       </c>
       <c r="E9" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="F9" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="H9" t="s">
-        <v>52</v>
+        <v>24</v>
       </c>
       <c r="I9" t="s">
         <v>82</v>
       </c>
       <c r="J9" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="K9" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="N9" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:14">
       <c r="A10" t="s">
         <v>83</v>
       </c>
       <c r="B10" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
         <v>84</v>
       </c>
       <c r="E10" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="F10" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="H10" t="s">
-        <v>52</v>
+        <v>24</v>
       </c>
       <c r="I10" t="s">
         <v>85</v>
       </c>
       <c r="J10" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="K10" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="N10" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:14">
       <c r="A11" t="s">
         <v>86</v>
       </c>
       <c r="B11" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
         <v>87</v>
       </c>
       <c r="E11" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="F11" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="H11" t="s">
-        <v>52</v>
+        <v>24</v>
       </c>
       <c r="I11" t="s">
         <v>88</v>
       </c>
       <c r="J11" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="K11" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="N11" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:14">
       <c r="A12" t="s">
         <v>89</v>
       </c>
       <c r="B12" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
         <v>90</v>
       </c>
       <c r="E12" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="F12" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="H12" t="s">
-        <v>52</v>
+        <v>24</v>
       </c>
       <c r="I12" t="s">
         <v>91</v>
       </c>
       <c r="J12" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="K12" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="N12" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:14">
       <c r="A13" t="s">
         <v>92</v>
       </c>
       <c r="B13" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="C13" t="s">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="D13" t="s">
         <v>93</v>
       </c>
       <c r="E13" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="F13" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="G13" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="H13" t="s">
-        <v>52</v>
+        <v>24</v>
       </c>
       <c r="I13" t="s">
         <v>94</v>
       </c>
       <c r="J13" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="K13" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="N13" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:14">
       <c r="A14" t="s">
         <v>95</v>
       </c>
       <c r="B14" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="D14" t="s">
         <v>96</v>
       </c>
       <c r="E14" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="F14" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="H14" t="s">
-        <v>52</v>
+        <v>24</v>
       </c>
       <c r="I14" t="s">
         <v>97</v>
       </c>
       <c r="J14" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="K14" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="N14" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:14">
       <c r="A15" t="s">
         <v>98</v>
       </c>
       <c r="B15" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="D15" t="s">
         <v>99</v>
       </c>
       <c r="E15" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="F15" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="G15" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="H15" t="s">
-        <v>52</v>
+        <v>24</v>
       </c>
       <c r="I15" t="s">
         <v>100</v>
       </c>
       <c r="J15" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="K15" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="N15" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:14">
       <c r="A16" t="s">
         <v>101</v>
       </c>
       <c r="B16" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="D16" t="s">
         <v>102</v>
       </c>
       <c r="E16" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="F16" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="G16" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="H16" t="s">
-        <v>52</v>
+        <v>24</v>
       </c>
       <c r="I16" t="s">
         <v>103</v>
       </c>
       <c r="J16" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="K16" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="N16" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:14">
       <c r="A17" t="s">
         <v>104</v>
       </c>
       <c r="B17" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="C17" t="s">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="D17" t="s">
         <v>105</v>
       </c>
       <c r="E17" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="F17" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="G17" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="H17" t="s">
-        <v>52</v>
+        <v>24</v>
       </c>
       <c r="I17" t="s">
         <v>106</v>
       </c>
       <c r="J17" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="K17" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="N17" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:14">
       <c r="A18" t="s">
         <v>107</v>
       </c>
       <c r="B18" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="C18" t="s">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="D18" t="s">
         <v>108</v>
       </c>
       <c r="E18" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="F18" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="G18" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="H18" t="s">
-        <v>52</v>
+        <v>24</v>
       </c>
       <c r="I18" t="s">
         <v>109</v>
       </c>
       <c r="J18" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="K18" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="N18" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:14">
       <c r="A19" t="s">
         <v>110</v>
       </c>
       <c r="B19" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="C19" t="s">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="D19" t="s">
         <v>111</v>
       </c>
       <c r="E19" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="F19" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="G19" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="H19" t="s">
-        <v>52</v>
+        <v>24</v>
       </c>
       <c r="I19" t="s">
         <v>112</v>
       </c>
       <c r="J19" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="K19" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="N19" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:14">
       <c r="A20" t="s">
         <v>113</v>
       </c>
       <c r="B20" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="C20" t="s">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="D20" t="s">
         <v>114</v>
       </c>
       <c r="E20" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="F20" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="G20" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="H20" t="s">
-        <v>52</v>
+        <v>24</v>
       </c>
       <c r="I20" t="s">
         <v>115</v>
       </c>
       <c r="J20" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="K20" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="N20" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
     </row>
-    <row r="21" ht="15.75" customHeight="1">
+    <row r="21" spans="1:14" ht="15.75" customHeight="1">
       <c r="A21" t="s">
         <v>116</v>
       </c>
       <c r="B21" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="C21" t="s">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="D21" t="s">
         <v>117</v>
       </c>
       <c r="E21" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="F21" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="G21" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="H21" t="s">
-        <v>52</v>
+        <v>24</v>
       </c>
       <c r="I21" t="s">
         <v>118</v>
       </c>
       <c r="J21" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="K21" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="N21" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
     </row>
-    <row r="22" ht="15.75" customHeight="1">
+    <row r="22" spans="1:14" ht="15.75" customHeight="1">
       <c r="A22" t="s">
         <v>119</v>
       </c>
       <c r="B22" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="C22" t="s">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="D22" t="s">
         <v>120</v>
       </c>
       <c r="E22" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="F22" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="G22" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="H22" t="s">
-        <v>52</v>
+        <v>24</v>
       </c>
       <c r="I22" t="s">
         <v>121</v>
       </c>
       <c r="J22" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="K22" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="N22" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
     </row>
-    <row r="23" ht="15.75" customHeight="1">
+    <row r="23" spans="1:14" ht="15.75" customHeight="1">
       <c r="A23" t="s">
         <v>122</v>
       </c>
       <c r="B23" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="C23" t="s">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="D23" t="s">
         <v>123</v>
       </c>
       <c r="E23" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="F23" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="G23" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="H23" t="s">
-        <v>52</v>
+        <v>24</v>
       </c>
       <c r="I23" t="s">
         <v>124</v>
       </c>
       <c r="J23" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="K23" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="N23" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
     </row>
-    <row r="24" ht="15.75" customHeight="1">
+    <row r="24" spans="1:14" ht="15.75" customHeight="1">
       <c r="A24" t="s">
         <v>125</v>
       </c>
       <c r="B24" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="C24" t="s">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="D24" t="s">
         <v>126</v>
       </c>
       <c r="E24" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="F24" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="G24" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="H24" t="s">
-        <v>52</v>
+        <v>24</v>
       </c>
       <c r="I24" t="s">
         <v>127</v>
       </c>
       <c r="J24" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="K24" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="N24" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
     </row>
-    <row r="25" ht="15.75" customHeight="1">
+    <row r="25" spans="1:14" ht="15.75" customHeight="1">
       <c r="A25" t="s">
         <v>128</v>
       </c>
       <c r="B25" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="C25" t="s">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="D25" t="s">
         <v>129</v>
       </c>
       <c r="E25" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="F25" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="G25" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="H25" t="s">
-        <v>52</v>
+        <v>24</v>
       </c>
       <c r="I25" t="s">
         <v>130</v>
       </c>
       <c r="J25" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="K25" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="N25" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
     </row>
-    <row r="26" ht="15.75" customHeight="1">
+    <row r="26" spans="1:14" ht="15.75" customHeight="1">
       <c r="A26" t="s">
         <v>131</v>
       </c>
       <c r="B26" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="C26" t="s">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="D26" t="s">
         <v>132</v>
       </c>
       <c r="E26" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="F26" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="G26" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="H26" t="s">
-        <v>52</v>
+        <v>24</v>
       </c>
       <c r="I26" t="s">
         <v>133</v>
       </c>
       <c r="J26" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="K26" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="N26" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
     </row>
-    <row r="27" ht="15.75" customHeight="1">
+    <row r="27" spans="1:14" ht="15.75" customHeight="1">
       <c r="A27" t="s">
         <v>134</v>
       </c>
       <c r="B27" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="C27" t="s">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="D27" t="s">
         <v>135</v>
       </c>
       <c r="E27" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="F27" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="G27" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="H27" t="s">
-        <v>52</v>
+        <v>24</v>
       </c>
       <c r="I27" t="s">
         <v>136</v>
       </c>
       <c r="J27" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="K27" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="N27" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
     </row>
-    <row r="28" ht="15.75" customHeight="1">
+    <row r="28" spans="1:14" ht="15.75" customHeight="1">
       <c r="A28" t="s">
         <v>137</v>
       </c>
       <c r="B28" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="C28" t="s">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="D28" t="s">
         <v>138</v>
       </c>
       <c r="E28" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="F28" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="G28" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="H28" t="s">
-        <v>52</v>
+        <v>24</v>
       </c>
       <c r="I28" t="s">
         <v>139</v>
       </c>
       <c r="J28" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="K28" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="N28" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
     </row>
-    <row r="29" ht="15.75" customHeight="1">
+    <row r="29" spans="1:14" ht="15.75" customHeight="1">
       <c r="A29" t="s">
         <v>140</v>
       </c>
       <c r="B29" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="C29" t="s">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="D29" t="s">
         <v>141</v>
       </c>
       <c r="E29" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="F29" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="G29" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="H29" t="s">
-        <v>52</v>
+        <v>24</v>
       </c>
       <c r="I29" t="s">
         <v>142</v>
       </c>
       <c r="J29" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="K29" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="N29" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
     </row>
-    <row r="30" ht="15.75" customHeight="1">
+    <row r="30" spans="1:14" ht="15.75" customHeight="1">
       <c r="A30" t="s">
         <v>143</v>
       </c>
       <c r="B30" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="C30" t="s">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="D30" t="s">
         <v>144</v>
       </c>
       <c r="E30" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="F30" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="G30" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="H30" t="s">
-        <v>52</v>
+        <v>24</v>
       </c>
       <c r="I30" t="s">
         <v>145</v>
       </c>
       <c r="J30" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="K30" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="N30" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
     </row>
-    <row r="31" ht="15.75" customHeight="1">
+    <row r="31" spans="1:14" ht="15.75" customHeight="1">
       <c r="A31" t="s">
         <v>146</v>
       </c>
       <c r="B31" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="C31" t="s">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="D31" t="s">
         <v>147</v>
       </c>
       <c r="E31" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="F31" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="G31" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="H31" t="s">
-        <v>52</v>
+        <v>24</v>
       </c>
       <c r="I31" t="s">
         <v>148</v>
       </c>
       <c r="J31" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="K31" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="N31" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
     </row>
-    <row r="32" ht="15.75" customHeight="1"/>
+    <row r="32" spans="1:14" ht="15.75" customHeight="1"/>
     <row r="33" ht="15.75" customHeight="1"/>
     <row r="34" ht="15.75" customHeight="1"/>
     <row r="35" ht="15.75" customHeight="1"/>
@@ -5047,97 +5337,93 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:K1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" xr3:uid="{51F8DEE0-4D01-5F28-A812-FC0BD7CAC4A5}"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="24.14"/>
-    <col customWidth="1" min="2" max="4" width="8.71"/>
-    <col customWidth="1" min="5" max="5" width="35.0"/>
-    <col customWidth="1" min="6" max="6" width="26.71"/>
-    <col customWidth="1" min="7" max="7" width="24.43"/>
-    <col customWidth="1" min="8" max="8" width="18.0"/>
-    <col customWidth="1" min="9" max="9" width="25.71"/>
-    <col customWidth="1" min="10" max="10" width="35.43"/>
-    <col customWidth="1" min="11" max="11" width="32.43"/>
-    <col customWidth="1" min="12" max="25" width="8.71"/>
+    <col min="1" max="1" width="24.140625" customWidth="1"/>
+    <col min="2" max="4" width="8.7109375" customWidth="1"/>
+    <col min="5" max="5" width="35" customWidth="1"/>
+    <col min="6" max="6" width="26.7109375" customWidth="1"/>
+    <col min="7" max="7" width="24.42578125" customWidth="1"/>
+    <col min="8" max="8" width="18" customWidth="1"/>
+    <col min="9" max="9" width="25.7109375" customWidth="1"/>
+    <col min="10" max="10" width="35.42578125" customWidth="1"/>
+    <col min="11" max="11" width="32.42578125" customWidth="1"/>
+    <col min="12" max="25" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:11">
       <c r="A1" t="s">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1" t="s">
+        <v>149</v>
+      </c>
+      <c r="E1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" t="s">
+        <v>150</v>
+      </c>
+      <c r="G1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B2" t="s">
         <v>25</v>
       </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="C2" t="s">
+        <v>152</v>
+      </c>
+      <c r="D2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" t="s">
+        <v>153</v>
+      </c>
+      <c r="F2" t="s">
         <v>154</v>
       </c>
-      <c r="E1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="G2" t="s">
         <v>155</v>
       </c>
-      <c r="G1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H1" t="s">
-        <v>39</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" t="s">
+      <c r="H2" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s">
+      <c r="K2" t="s">
         <v>157</v>
-      </c>
-      <c r="B2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C2" t="s">
-        <v>157</v>
-      </c>
-      <c r="D2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E2" t="s">
-        <v>158</v>
-      </c>
-      <c r="F2" t="s">
-        <v>159</v>
-      </c>
-      <c r="G2" t="s">
-        <v>160</v>
-      </c>
-      <c r="H2" t="s">
-        <v>161</v>
-      </c>
-      <c r="K2" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1"/>
@@ -6121,309 +6407,402 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:I1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" xr3:uid="{F9CF3CF3-643B-5BE6-8B46-32C596A47465}">
+      <selection activeCell="K33" sqref="K33"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="26.14"/>
-    <col customWidth="1" min="2" max="2" width="63.43"/>
-    <col customWidth="1" min="3" max="3" width="8.71"/>
-    <col customWidth="1" min="4" max="4" width="18.86"/>
-    <col customWidth="1" min="5" max="5" width="26.86"/>
-    <col customWidth="1" min="6" max="6" width="17.14"/>
-    <col customWidth="1" min="7" max="7" width="24.14"/>
-    <col customWidth="1" min="8" max="25" width="8.71"/>
+    <col min="1" max="1" width="26.140625" customWidth="1"/>
+    <col min="2" max="2" width="63.42578125" customWidth="1"/>
+    <col min="3" max="3" width="8.7109375" customWidth="1"/>
+    <col min="4" max="4" width="18.85546875" customWidth="1"/>
+    <col min="5" max="5" width="26.85546875" customWidth="1"/>
+    <col min="6" max="6" width="17.140625" customWidth="1"/>
+    <col min="7" max="7" width="13.5703125" customWidth="1"/>
+    <col min="8" max="8" width="8.7109375" customWidth="1"/>
+    <col min="9" max="9" width="30.7109375" customWidth="1"/>
+    <col min="10" max="25" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
-        <v>149</v>
+        <v>158</v>
       </c>
       <c r="B1" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="C1" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="D1" t="s">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="E1" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="F1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="C2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" s="2">
+        <v>43101</v>
+      </c>
+      <c r="E2" s="2">
+        <v>43831</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" t="s">
+        <v>162</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="I3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" t="s">
+        <v>162</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="I4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" t="s">
+        <v>162</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="I5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" t="s">
+        <v>162</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="I6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" t="s">
+        <v>162</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="I7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" t="s">
+        <v>162</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="I8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" t="s">
+        <v>162</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="I9">
         <v>8</v>
       </c>
-      <c r="G1" t="s">
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" t="s">
+        <v>162</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="I10">
         <v>9</v>
       </c>
-      <c r="H1" t="s">
-        <v>35</v>
-      </c>
     </row>
-    <row r="2">
-      <c r="A2" t="s">
-        <v>152</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="C2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D2" s="2">
-        <v>43101.0</v>
-      </c>
-      <c r="E2" s="2">
-        <v>43831.0</v>
+    <row r="11" spans="1:9">
+      <c r="A11" t="s">
+        <v>162</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="I11">
+        <v>10</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v>152</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>163</v>
+    <row r="12" spans="1:9">
+      <c r="A12" t="s">
+        <v>162</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="I12">
+        <v>11</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>152</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>164</v>
+    <row r="13" spans="1:9">
+      <c r="A13" t="s">
+        <v>162</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="I13">
+        <v>12</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="s">
-        <v>152</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>165</v>
+    <row r="14" spans="1:9">
+      <c r="A14" t="s">
+        <v>162</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="I14">
+        <v>13</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="s">
-        <v>152</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>166</v>
+    <row r="15" spans="1:9">
+      <c r="A15" t="s">
+        <v>162</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="I15">
+        <v>14</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="s">
-        <v>152</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>167</v>
+    <row r="16" spans="1:9">
+      <c r="A16" t="s">
+        <v>162</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="I16">
+        <v>15</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="s">
-        <v>152</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>168</v>
+    <row r="17" spans="1:9">
+      <c r="A17" t="s">
+        <v>162</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="I17">
+        <v>16</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="s">
-        <v>152</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>169</v>
+    <row r="18" spans="1:9">
+      <c r="A18" t="s">
+        <v>162</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="I18">
+        <v>17</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="s">
-        <v>152</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>170</v>
+    <row r="19" spans="1:9">
+      <c r="A19" t="s">
+        <v>162</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="I19">
+        <v>18</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="s">
-        <v>152</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>171</v>
+    <row r="20" spans="1:9">
+      <c r="A20" t="s">
+        <v>162</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="I20">
+        <v>19</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="s">
-        <v>152</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>172</v>
+    <row r="21" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A21" t="s">
+        <v>162</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="I21">
+        <v>20</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="s">
-        <v>152</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>173</v>
+    <row r="22" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A22" t="s">
+        <v>162</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="I22">
+        <v>21</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" t="s">
-        <v>152</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>174</v>
+    <row r="23" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A23" t="s">
+        <v>162</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="I23">
+        <v>22</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" t="s">
-        <v>152</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>175</v>
+    <row r="24" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A24" t="s">
+        <v>162</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="I24">
+        <v>23</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" t="s">
-        <v>152</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>176</v>
+    <row r="25" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A25" t="s">
+        <v>162</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="I25">
+        <v>24</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" t="s">
-        <v>152</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>177</v>
+    <row r="26" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A26" t="s">
+        <v>162</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="I26">
+        <v>25</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="s">
-        <v>152</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>178</v>
+    <row r="27" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A27" t="s">
+        <v>162</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="I27">
+        <v>26</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="s">
-        <v>152</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>179</v>
+    <row r="28" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A28" t="s">
+        <v>162</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="I28">
+        <v>27</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="s">
-        <v>152</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>180</v>
+    <row r="29" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A29" t="s">
+        <v>162</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="I29">
+        <v>28</v>
       </c>
     </row>
-    <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" t="s">
-        <v>152</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>181</v>
+    <row r="30" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A30" t="s">
+        <v>162</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="I30">
+        <v>29</v>
       </c>
     </row>
-    <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" t="s">
-        <v>152</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>182</v>
+    <row r="31" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A31" t="s">
+        <v>162</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="I31">
+        <v>30</v>
       </c>
     </row>
-    <row r="23" ht="15.75" customHeight="1">
-      <c r="A23" t="s">
-        <v>152</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="24" ht="15.75" customHeight="1">
-      <c r="A24" t="s">
-        <v>152</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="25" ht="15.75" customHeight="1">
-      <c r="A25" t="s">
-        <v>152</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="26" ht="15.75" customHeight="1">
-      <c r="A26" t="s">
-        <v>152</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="27" ht="15.75" customHeight="1">
-      <c r="A27" t="s">
-        <v>152</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="28" ht="15.75" customHeight="1">
-      <c r="A28" t="s">
-        <v>152</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="29" ht="15.75" customHeight="1">
-      <c r="A29" t="s">
-        <v>152</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="30" ht="15.75" customHeight="1">
-      <c r="A30" t="s">
-        <v>152</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="31" ht="15.75" customHeight="1">
-      <c r="A31" t="s">
-        <v>152</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="32" ht="15.75" customHeight="1"/>
+    <row r="32" spans="1:9" ht="15.75" customHeight="1"/>
     <row r="33" ht="15.75" customHeight="1"/>
     <row r="34" ht="15.75" customHeight="1"/>
     <row r="35" ht="15.75" customHeight="1"/>
@@ -7393,9 +7772,7 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/test_files/Modify_DPM_explicit_domain_extension.xlsx
+++ b/test_files/Modify_DPM_explicit_domain_extension.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21705"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{29553CC1-C2D0-4470-86C2-D7D8AC658733}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A5ABB082-CEC9-4733-A150-B7C05EC539AC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CodeSchemes" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="585" uniqueCount="192">
   <si>
     <t>CODEVALUE</t>
   </si>
@@ -239,9 +239,6 @@
     <t>Testcode 31</t>
   </si>
   <si>
-    <t>4</t>
-  </si>
-  <si>
     <t>testcode32</t>
   </si>
   <si>
@@ -503,6 +500,9 @@
     <t>Members_600_dpmExplicitDomain</t>
   </si>
   <si>
+    <t>MEMBER</t>
+  </si>
+  <si>
     <t>DPMMEMBERXBRLCODEPREFIX</t>
   </si>
   <si>
@@ -510,9 +510,6 @@
   </si>
   <si>
     <t>RELATION</t>
-  </si>
-  <si>
-    <t>SEQUENCE_ID</t>
   </si>
   <si>
     <t>yyy</t>
@@ -646,10 +643,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -966,7 +966,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}"/>
+    <sheetView workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
+      <selection activeCell="L8" sqref="L8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
@@ -3171,13 +3173,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:N1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" xr3:uid="{842E5F09-E766-5B8D-85AF-A39847EA96FD}"/>
+    <sheetView topLeftCell="A16" workbookViewId="0" xr3:uid="{842E5F09-E766-5B8D-85AF-A39847EA96FD}">
+      <selection activeCell="I2" sqref="I2:I31"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="3" width="8.7109375" customWidth="1"/>
-    <col min="4" max="4" width="35.42578125" customWidth="1"/>
-    <col min="5" max="11" width="8.7109375" customWidth="1"/>
+    <col min="1" max="1" width="25.140625" customWidth="1"/>
+    <col min="2" max="3" width="8.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" customWidth="1"/>
+    <col min="5" max="5" width="19.140625" customWidth="1"/>
+    <col min="6" max="6" width="15.28515625" customWidth="1"/>
+    <col min="7" max="7" width="21.28515625" customWidth="1"/>
+    <col min="8" max="11" width="8.7109375" customWidth="1"/>
     <col min="12" max="12" width="18.28515625" customWidth="1"/>
     <col min="13" max="13" width="29.28515625" customWidth="1"/>
     <col min="14" max="25" width="8.7109375" customWidth="1"/>
@@ -3366,8 +3374,8 @@
       <c r="H5" t="s">
         <v>24</v>
       </c>
-      <c r="I5" t="s">
-        <v>70</v>
+      <c r="I5">
+        <v>4</v>
       </c>
       <c r="J5" t="s">
         <v>26</v>
@@ -3381,7 +3389,7 @@
     </row>
     <row r="6" spans="1:14">
       <c r="A6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B6" t="s">
         <v>26</v>
@@ -3390,7 +3398,7 @@
         <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E6" t="s">
         <v>26</v>
@@ -3405,7 +3413,7 @@
         <v>24</v>
       </c>
       <c r="I6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J6" t="s">
         <v>26</v>
@@ -3419,7 +3427,7 @@
     </row>
     <row r="7" spans="1:14">
       <c r="A7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B7" t="s">
         <v>26</v>
@@ -3428,7 +3436,7 @@
         <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E7" t="s">
         <v>26</v>
@@ -3443,7 +3451,7 @@
         <v>24</v>
       </c>
       <c r="I7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J7" t="s">
         <v>26</v>
@@ -3457,7 +3465,7 @@
     </row>
     <row r="8" spans="1:14">
       <c r="A8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B8" t="s">
         <v>26</v>
@@ -3466,7 +3474,7 @@
         <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E8" t="s">
         <v>26</v>
@@ -3481,7 +3489,7 @@
         <v>24</v>
       </c>
       <c r="I8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J8" t="s">
         <v>26</v>
@@ -3495,7 +3503,7 @@
     </row>
     <row r="9" spans="1:14">
       <c r="A9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B9" t="s">
         <v>26</v>
@@ -3504,7 +3512,7 @@
         <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E9" t="s">
         <v>26</v>
@@ -3519,7 +3527,7 @@
         <v>24</v>
       </c>
       <c r="I9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J9" t="s">
         <v>26</v>
@@ -3533,7 +3541,7 @@
     </row>
     <row r="10" spans="1:14">
       <c r="A10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B10" t="s">
         <v>26</v>
@@ -3542,7 +3550,7 @@
         <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E10" t="s">
         <v>26</v>
@@ -3557,7 +3565,7 @@
         <v>24</v>
       </c>
       <c r="I10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J10" t="s">
         <v>26</v>
@@ -3571,7 +3579,7 @@
     </row>
     <row r="11" spans="1:14">
       <c r="A11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
@@ -3580,7 +3588,7 @@
         <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E11" t="s">
         <v>26</v>
@@ -3595,7 +3603,7 @@
         <v>24</v>
       </c>
       <c r="I11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J11" t="s">
         <v>26</v>
@@ -3609,7 +3617,7 @@
     </row>
     <row r="12" spans="1:14">
       <c r="A12" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -3618,7 +3626,7 @@
         <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E12" t="s">
         <v>26</v>
@@ -3633,7 +3641,7 @@
         <v>24</v>
       </c>
       <c r="I12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J12" t="s">
         <v>26</v>
@@ -3647,7 +3655,7 @@
     </row>
     <row r="13" spans="1:14">
       <c r="A13" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
@@ -3656,7 +3664,7 @@
         <v>25</v>
       </c>
       <c r="D13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E13" t="s">
         <v>26</v>
@@ -3671,7 +3679,7 @@
         <v>24</v>
       </c>
       <c r="I13" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J13" t="s">
         <v>26</v>
@@ -3685,7 +3693,7 @@
     </row>
     <row r="14" spans="1:14">
       <c r="A14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B14" t="s">
         <v>26</v>
@@ -3694,7 +3702,7 @@
         <v>25</v>
       </c>
       <c r="D14" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E14" t="s">
         <v>26</v>
@@ -3709,7 +3717,7 @@
         <v>24</v>
       </c>
       <c r="I14" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="J14" t="s">
         <v>26</v>
@@ -3723,7 +3731,7 @@
     </row>
     <row r="15" spans="1:14">
       <c r="A15" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B15" t="s">
         <v>26</v>
@@ -3732,7 +3740,7 @@
         <v>25</v>
       </c>
       <c r="D15" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E15" t="s">
         <v>26</v>
@@ -3747,7 +3755,7 @@
         <v>24</v>
       </c>
       <c r="I15" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J15" t="s">
         <v>26</v>
@@ -3761,7 +3769,7 @@
     </row>
     <row r="16" spans="1:14">
       <c r="A16" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B16" t="s">
         <v>26</v>
@@ -3770,7 +3778,7 @@
         <v>25</v>
       </c>
       <c r="D16" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E16" t="s">
         <v>26</v>
@@ -3785,7 +3793,7 @@
         <v>24</v>
       </c>
       <c r="I16" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J16" t="s">
         <v>26</v>
@@ -3799,7 +3807,7 @@
     </row>
     <row r="17" spans="1:14">
       <c r="A17" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B17" t="s">
         <v>26</v>
@@ -3808,7 +3816,7 @@
         <v>25</v>
       </c>
       <c r="D17" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E17" t="s">
         <v>26</v>
@@ -3823,7 +3831,7 @@
         <v>24</v>
       </c>
       <c r="I17" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J17" t="s">
         <v>26</v>
@@ -3837,7 +3845,7 @@
     </row>
     <row r="18" spans="1:14">
       <c r="A18" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B18" t="s">
         <v>26</v>
@@ -3846,7 +3854,7 @@
         <v>25</v>
       </c>
       <c r="D18" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E18" t="s">
         <v>26</v>
@@ -3861,7 +3869,7 @@
         <v>24</v>
       </c>
       <c r="I18" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J18" t="s">
         <v>26</v>
@@ -3875,7 +3883,7 @@
     </row>
     <row r="19" spans="1:14">
       <c r="A19" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B19" t="s">
         <v>26</v>
@@ -3884,7 +3892,7 @@
         <v>25</v>
       </c>
       <c r="D19" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E19" t="s">
         <v>26</v>
@@ -3899,7 +3907,7 @@
         <v>24</v>
       </c>
       <c r="I19" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="J19" t="s">
         <v>26</v>
@@ -3913,7 +3921,7 @@
     </row>
     <row r="20" spans="1:14">
       <c r="A20" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B20" t="s">
         <v>26</v>
@@ -3922,7 +3930,7 @@
         <v>25</v>
       </c>
       <c r="D20" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E20" t="s">
         <v>26</v>
@@ -3937,7 +3945,7 @@
         <v>24</v>
       </c>
       <c r="I20" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="J20" t="s">
         <v>26</v>
@@ -3951,7 +3959,7 @@
     </row>
     <row r="21" spans="1:14" ht="15.75" customHeight="1">
       <c r="A21" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B21" t="s">
         <v>26</v>
@@ -3960,7 +3968,7 @@
         <v>25</v>
       </c>
       <c r="D21" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E21" t="s">
         <v>26</v>
@@ -3975,7 +3983,7 @@
         <v>24</v>
       </c>
       <c r="I21" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J21" t="s">
         <v>26</v>
@@ -3989,7 +3997,7 @@
     </row>
     <row r="22" spans="1:14" ht="15.75" customHeight="1">
       <c r="A22" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B22" t="s">
         <v>26</v>
@@ -3998,7 +4006,7 @@
         <v>25</v>
       </c>
       <c r="D22" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E22" t="s">
         <v>26</v>
@@ -4013,7 +4021,7 @@
         <v>24</v>
       </c>
       <c r="I22" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="J22" t="s">
         <v>26</v>
@@ -4027,7 +4035,7 @@
     </row>
     <row r="23" spans="1:14" ht="15.75" customHeight="1">
       <c r="A23" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B23" t="s">
         <v>26</v>
@@ -4036,7 +4044,7 @@
         <v>25</v>
       </c>
       <c r="D23" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E23" t="s">
         <v>26</v>
@@ -4051,7 +4059,7 @@
         <v>24</v>
       </c>
       <c r="I23" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="J23" t="s">
         <v>26</v>
@@ -4065,7 +4073,7 @@
     </row>
     <row r="24" spans="1:14" ht="15.75" customHeight="1">
       <c r="A24" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B24" t="s">
         <v>26</v>
@@ -4074,7 +4082,7 @@
         <v>25</v>
       </c>
       <c r="D24" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E24" t="s">
         <v>26</v>
@@ -4089,7 +4097,7 @@
         <v>24</v>
       </c>
       <c r="I24" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J24" t="s">
         <v>26</v>
@@ -4103,7 +4111,7 @@
     </row>
     <row r="25" spans="1:14" ht="15.75" customHeight="1">
       <c r="A25" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B25" t="s">
         <v>26</v>
@@ -4112,7 +4120,7 @@
         <v>25</v>
       </c>
       <c r="D25" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E25" t="s">
         <v>26</v>
@@ -4127,7 +4135,7 @@
         <v>24</v>
       </c>
       <c r="I25" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="J25" t="s">
         <v>26</v>
@@ -4141,7 +4149,7 @@
     </row>
     <row r="26" spans="1:14" ht="15.75" customHeight="1">
       <c r="A26" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B26" t="s">
         <v>26</v>
@@ -4150,7 +4158,7 @@
         <v>25</v>
       </c>
       <c r="D26" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E26" t="s">
         <v>26</v>
@@ -4165,7 +4173,7 @@
         <v>24</v>
       </c>
       <c r="I26" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="J26" t="s">
         <v>26</v>
@@ -4179,7 +4187,7 @@
     </row>
     <row r="27" spans="1:14" ht="15.75" customHeight="1">
       <c r="A27" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B27" t="s">
         <v>26</v>
@@ -4188,7 +4196,7 @@
         <v>25</v>
       </c>
       <c r="D27" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E27" t="s">
         <v>26</v>
@@ -4203,7 +4211,7 @@
         <v>24</v>
       </c>
       <c r="I27" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="J27" t="s">
         <v>26</v>
@@ -4217,7 +4225,7 @@
     </row>
     <row r="28" spans="1:14" ht="15.75" customHeight="1">
       <c r="A28" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B28" t="s">
         <v>26</v>
@@ -4226,7 +4234,7 @@
         <v>25</v>
       </c>
       <c r="D28" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E28" t="s">
         <v>26</v>
@@ -4241,7 +4249,7 @@
         <v>24</v>
       </c>
       <c r="I28" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="J28" t="s">
         <v>26</v>
@@ -4255,7 +4263,7 @@
     </row>
     <row r="29" spans="1:14" ht="15.75" customHeight="1">
       <c r="A29" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B29" t="s">
         <v>26</v>
@@ -4264,7 +4272,7 @@
         <v>25</v>
       </c>
       <c r="D29" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E29" t="s">
         <v>26</v>
@@ -4279,7 +4287,7 @@
         <v>24</v>
       </c>
       <c r="I29" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="J29" t="s">
         <v>26</v>
@@ -4293,7 +4301,7 @@
     </row>
     <row r="30" spans="1:14" ht="15.75" customHeight="1">
       <c r="A30" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B30" t="s">
         <v>26</v>
@@ -4302,7 +4310,7 @@
         <v>25</v>
       </c>
       <c r="D30" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E30" t="s">
         <v>26</v>
@@ -4317,7 +4325,7 @@
         <v>24</v>
       </c>
       <c r="I30" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="J30" t="s">
         <v>26</v>
@@ -4331,7 +4339,7 @@
     </row>
     <row r="31" spans="1:14" ht="15.75" customHeight="1">
       <c r="A31" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B31" t="s">
         <v>26</v>
@@ -4340,7 +4348,7 @@
         <v>25</v>
       </c>
       <c r="D31" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E31" t="s">
         <v>26</v>
@@ -4355,7 +4363,7 @@
         <v>24</v>
       </c>
       <c r="I31" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="J31" t="s">
         <v>26</v>
@@ -5373,13 +5381,13 @@
         <v>33</v>
       </c>
       <c r="D1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E1" t="s">
         <v>11</v>
       </c>
       <c r="F1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G1" t="s">
         <v>12</v>
@@ -5394,36 +5402,36 @@
         <v>15</v>
       </c>
       <c r="K1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B2" t="s">
         <v>25</v>
       </c>
       <c r="C2" t="s">
+        <v>151</v>
+      </c>
+      <c r="D2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" t="s">
         <v>152</v>
       </c>
-      <c r="D2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>153</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>154</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>155</v>
       </c>
-      <c r="H2" t="s">
+      <c r="K2" t="s">
         <v>156</v>
-      </c>
-      <c r="K2" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1"/>
@@ -6416,393 +6424,478 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:I1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0" xr3:uid="{F9CF3CF3-643B-5BE6-8B46-32C596A47465}">
-      <selection activeCell="K33" sqref="K33"/>
+    <sheetView tabSelected="1" workbookViewId="0" xr3:uid="{F9CF3CF3-643B-5BE6-8B46-32C596A47465}">
+      <selection activeCell="J1" sqref="J1:J1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="26.140625" customWidth="1"/>
-    <col min="2" max="2" width="63.42578125" customWidth="1"/>
-    <col min="3" max="3" width="8.7109375" customWidth="1"/>
-    <col min="4" max="4" width="18.85546875" customWidth="1"/>
-    <col min="5" max="5" width="26.85546875" customWidth="1"/>
-    <col min="6" max="6" width="17.140625" customWidth="1"/>
-    <col min="7" max="7" width="13.5703125" customWidth="1"/>
-    <col min="8" max="8" width="8.7109375" customWidth="1"/>
-    <col min="9" max="9" width="30.7109375" customWidth="1"/>
-    <col min="10" max="25" width="8.7109375" customWidth="1"/>
+    <col min="2" max="2" width="31.140625" customWidth="1"/>
+    <col min="3" max="3" width="47.28515625" customWidth="1"/>
+    <col min="4" max="4" width="15.85546875" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="8.85546875" customWidth="1"/>
+    <col min="7" max="7" width="17.140625" customWidth="1"/>
+    <col min="8" max="8" width="13.5703125" customWidth="1"/>
+    <col min="9" max="25" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B1" t="s">
         <v>158</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>159</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>160</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>12</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>13</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>14</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>15</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>59</v>
-      </c>
-      <c r="I1" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" t="s">
+        <v>161</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="C2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D2" s="2">
+      <c r="D2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" s="2">
         <v>43101</v>
       </c>
-      <c r="E2" s="2">
+      <c r="F2" s="2">
         <v>43831</v>
-      </c>
-      <c r="I2">
-        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>162</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="I3">
-        <v>2</v>
+        <v>64</v>
+      </c>
+      <c r="B3" t="s">
+        <v>161</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="D3" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" t="s">
-        <v>162</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="I4">
-        <v>3</v>
+        <v>67</v>
+      </c>
+      <c r="B4" t="s">
+        <v>161</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="D4" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" t="s">
-        <v>162</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="I5">
+      <c r="A5" s="3">
         <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>161</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="D5" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" t="s">
-        <v>162</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="I6">
-        <v>5</v>
+        <v>72</v>
+      </c>
+      <c r="B6" t="s">
+        <v>161</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="D6" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" t="s">
-        <v>162</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="I7">
-        <v>6</v>
+        <v>75</v>
+      </c>
+      <c r="B7" t="s">
+        <v>161</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D7" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" t="s">
-        <v>162</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="I8">
-        <v>7</v>
+        <v>78</v>
+      </c>
+      <c r="B8" t="s">
+        <v>161</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D8" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" t="s">
-        <v>162</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="I9">
-        <v>8</v>
+        <v>81</v>
+      </c>
+      <c r="B9" t="s">
+        <v>161</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="D9" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" t="s">
-        <v>162</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="I10">
-        <v>9</v>
+        <v>84</v>
+      </c>
+      <c r="B10" t="s">
+        <v>161</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="D10" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" t="s">
-        <v>162</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="I11">
-        <v>10</v>
+        <v>87</v>
+      </c>
+      <c r="B11" t="s">
+        <v>161</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="D11" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" t="s">
-        <v>162</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="I12">
-        <v>11</v>
+        <v>90</v>
+      </c>
+      <c r="B12" t="s">
+        <v>161</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="D12" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" t="s">
-        <v>162</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="I13">
-        <v>12</v>
+        <v>93</v>
+      </c>
+      <c r="B13" t="s">
+        <v>161</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="D13" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" t="s">
-        <v>162</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="I14">
-        <v>13</v>
+        <v>96</v>
+      </c>
+      <c r="B14" t="s">
+        <v>161</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="D14" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" t="s">
-        <v>162</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="I15">
-        <v>14</v>
+        <v>99</v>
+      </c>
+      <c r="B15" t="s">
+        <v>161</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="D15" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" t="s">
-        <v>162</v>
-      </c>
-      <c r="B16" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B16" t="s">
+        <v>161</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="D16" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
+        <v>105</v>
+      </c>
+      <c r="B17" t="s">
+        <v>161</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="I16">
-        <v>15</v>
+      <c r="D17" t="s">
+        <v>26</v>
       </c>
     </row>
-    <row r="17" spans="1:9">
-      <c r="A17" t="s">
-        <v>162</v>
-      </c>
-      <c r="B17" s="1" t="s">
+    <row r="18" spans="1:4">
+      <c r="A18" t="s">
+        <v>108</v>
+      </c>
+      <c r="B18" t="s">
+        <v>161</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="I17">
-        <v>16</v>
+      <c r="D18" t="s">
+        <v>26</v>
       </c>
     </row>
-    <row r="18" spans="1:9">
-      <c r="A18" t="s">
-        <v>162</v>
-      </c>
-      <c r="B18" s="1" t="s">
+    <row r="19" spans="1:4">
+      <c r="A19" t="s">
+        <v>111</v>
+      </c>
+      <c r="B19" t="s">
+        <v>161</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="I18">
-        <v>17</v>
+      <c r="D19" t="s">
+        <v>26</v>
       </c>
     </row>
-    <row r="19" spans="1:9">
-      <c r="A19" t="s">
-        <v>162</v>
-      </c>
-      <c r="B19" s="1" t="s">
+    <row r="20" spans="1:4">
+      <c r="A20" t="s">
+        <v>114</v>
+      </c>
+      <c r="B20" t="s">
+        <v>161</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="I19">
-        <v>18</v>
+      <c r="D20" t="s">
+        <v>26</v>
       </c>
     </row>
-    <row r="20" spans="1:9">
-      <c r="A20" t="s">
-        <v>162</v>
-      </c>
-      <c r="B20" s="1" t="s">
+    <row r="21" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A21" t="s">
+        <v>117</v>
+      </c>
+      <c r="B21" t="s">
+        <v>161</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="I20">
-        <v>19</v>
+      <c r="D21" t="s">
+        <v>26</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A21" t="s">
-        <v>162</v>
-      </c>
-      <c r="B21" s="1" t="s">
+    <row r="22" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A22" t="s">
+        <v>120</v>
+      </c>
+      <c r="B22" t="s">
+        <v>161</v>
+      </c>
+      <c r="C22" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="I21">
-        <v>20</v>
+      <c r="D22" t="s">
+        <v>26</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A22" t="s">
-        <v>162</v>
-      </c>
-      <c r="B22" s="1" t="s">
+    <row r="23" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A23" t="s">
+        <v>123</v>
+      </c>
+      <c r="B23" t="s">
+        <v>161</v>
+      </c>
+      <c r="C23" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="I22">
-        <v>21</v>
+      <c r="D23" t="s">
+        <v>26</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A23" t="s">
-        <v>162</v>
-      </c>
-      <c r="B23" s="1" t="s">
+    <row r="24" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A24" t="s">
+        <v>126</v>
+      </c>
+      <c r="B24" t="s">
+        <v>161</v>
+      </c>
+      <c r="C24" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="I23">
-        <v>22</v>
+      <c r="D24" t="s">
+        <v>26</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A24" t="s">
-        <v>162</v>
-      </c>
-      <c r="B24" s="1" t="s">
+    <row r="25" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A25" t="s">
+        <v>129</v>
+      </c>
+      <c r="B25" t="s">
+        <v>161</v>
+      </c>
+      <c r="C25" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="I24">
-        <v>23</v>
+      <c r="D25" t="s">
+        <v>26</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A25" t="s">
-        <v>162</v>
-      </c>
-      <c r="B25" s="1" t="s">
+    <row r="26" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A26" t="s">
+        <v>132</v>
+      </c>
+      <c r="B26" t="s">
+        <v>161</v>
+      </c>
+      <c r="C26" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="I25">
-        <v>24</v>
+      <c r="D26" t="s">
+        <v>26</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A26" t="s">
-        <v>162</v>
-      </c>
-      <c r="B26" s="1" t="s">
+    <row r="27" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A27" t="s">
+        <v>135</v>
+      </c>
+      <c r="B27" t="s">
+        <v>161</v>
+      </c>
+      <c r="C27" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="I26">
-        <v>25</v>
+      <c r="D27" t="s">
+        <v>26</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A27" t="s">
-        <v>162</v>
-      </c>
-      <c r="B27" s="1" t="s">
+    <row r="28" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A28" t="s">
+        <v>138</v>
+      </c>
+      <c r="B28" t="s">
+        <v>161</v>
+      </c>
+      <c r="C28" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="I27">
+      <c r="D28" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A28" t="s">
-        <v>162</v>
-      </c>
-      <c r="B28" s="1" t="s">
+    <row r="29" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A29" t="s">
+        <v>141</v>
+      </c>
+      <c r="B29" t="s">
+        <v>161</v>
+      </c>
+      <c r="C29" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="I28">
-        <v>27</v>
+      <c r="D29" t="s">
+        <v>26</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A29" t="s">
-        <v>162</v>
-      </c>
-      <c r="B29" s="1" t="s">
+    <row r="30" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A30" t="s">
+        <v>144</v>
+      </c>
+      <c r="B30" t="s">
+        <v>161</v>
+      </c>
+      <c r="C30" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="I29">
-        <v>28</v>
+      <c r="D30" t="s">
+        <v>26</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A30" t="s">
-        <v>162</v>
-      </c>
-      <c r="B30" s="1" t="s">
+    <row r="31" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A31" t="s">
+        <v>147</v>
+      </c>
+      <c r="B31" t="s">
+        <v>161</v>
+      </c>
+      <c r="C31" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="I30">
-        <v>29</v>
+      <c r="D31" t="s">
+        <v>26</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A31" t="s">
-        <v>162</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="I31">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" ht="15.75" customHeight="1"/>
+    <row r="32" spans="1:4" ht="15.75" customHeight="1"/>
     <row r="33" ht="15.75" customHeight="1"/>
     <row r="34" ht="15.75" customHeight="1"/>
     <row r="35" ht="15.75" customHeight="1"/>

--- a/test_files/Modify_DPM_explicit_domain_extension.xlsx
+++ b/test_files/Modify_DPM_explicit_domain_extension.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21705"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A5ABB082-CEC9-4733-A150-B7C05EC539AC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B67A9511-9266-4A96-9E75-807923E8B7D3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" firstSheet="4" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CodeSchemes" sheetId="1" r:id="rId1"/>
@@ -500,7 +500,7 @@
     <t>Members_600_dpmExplicitDomain</t>
   </si>
   <si>
-    <t>MEMBER</t>
+    <t>MEMBER_ID</t>
   </si>
   <si>
     <t>DPMMEMBERXBRLCODEPREFIX</t>
@@ -6424,9 +6424,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:I1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" xr3:uid="{F9CF3CF3-643B-5BE6-8B46-32C596A47465}">
-      <selection activeCell="J1" sqref="J1:J1048576"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0" xr3:uid="{F9CF3CF3-643B-5BE6-8B46-32C596A47465}"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
@@ -6434,7 +6432,7 @@
     <col min="3" max="3" width="47.28515625" customWidth="1"/>
     <col min="4" max="4" width="15.85546875" customWidth="1"/>
     <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="8.85546875" customWidth="1"/>
+    <col min="6" max="6" width="21.5703125" customWidth="1"/>
     <col min="7" max="7" width="17.140625" customWidth="1"/>
     <col min="8" max="8" width="13.5703125" customWidth="1"/>
     <col min="9" max="25" width="8.7109375" customWidth="1"/>
